--- a/Team-Data/2014-15/1-28-2014-15.xlsx
+++ b/Team-Data/2014-15/1-28-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.826</v>
+        <v>0.822</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
@@ -693,19 +760,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N2" t="n">
         <v>0.387</v>
       </c>
       <c r="O2" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P2" t="n">
         <v>22.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
       <c r="R2" t="n">
         <v>8.5</v>
@@ -714,16 +781,16 @@
         <v>32.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
         <v>26.2</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -738,13 +805,13 @@
         <v>20.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="AC2" t="n">
         <v>7.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -777,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -792,13 +859,13 @@
         <v>13</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -807,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
@@ -866,7 +933,7 @@
         <v>39.6</v>
       </c>
       <c r="J3" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.452</v>
@@ -881,25 +948,25 @@
         <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="P3" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="Q3" t="n">
         <v>0.756</v>
       </c>
       <c r="R3" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
         <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
@@ -911,19 +978,19 @@
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD3" t="n">
         <v>28</v>
@@ -932,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -950,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -965,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
         <v>12</v>
@@ -980,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -992,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.409</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,7 +1115,7 @@
         <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.444</v>
@@ -1057,34 +1124,34 @@
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O4" t="n">
         <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.3</v>
@@ -1093,31 +1160,31 @@
         <v>4.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
         <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1126,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
@@ -1135,19 +1202,19 @@
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1162,16 +1229,16 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.413</v>
+        <v>0.422</v>
       </c>
       <c r="H5" t="n">
         <v>48.8</v>
@@ -1242,28 +1309,28 @@
         <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R5" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S5" t="n">
         <v>33.4</v>
       </c>
       <c r="T5" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V5" t="n">
         <v>11.7</v>
@@ -1281,16 +1348,16 @@
         <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1323,13 +1390,13 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>20</v>
@@ -1338,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>27</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1514,19 +1581,19 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT6" t="n">
         <v>4</v>
       </c>
-      <c r="AS6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.574</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1597,64 +1664,64 @@
         <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L7" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M7" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
         <v>18.7</v>
       </c>
       <c r="P7" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R7" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
         <v>30.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1669,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1678,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>10</v>
@@ -1687,16 +1754,16 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>24</v>
@@ -1705,16 +1772,16 @@
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
         <v>18</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -1773,28 +1840,28 @@
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
         <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.764</v>
@@ -1803,58 +1870,58 @@
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
         <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
         <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE8" t="n">
         <v>8</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>9</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1869,37 +1936,37 @@
         <v>12</v>
       </c>
       <c r="AO8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP8" t="n">
         <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT8" t="n">
         <v>21</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" t="n">
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -1908,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
         <v>27</v>
       </c>
       <c r="G9" t="n">
-        <v>0.413</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1967,34 +2034,34 @@
         <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.328</v>
+        <v>0.324</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0.735</v>
       </c>
       <c r="R9" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V9" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2009,28 +2076,28 @@
         <v>23.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.4</v>
+        <v>-2.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2042,19 +2109,19 @@
         <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2069,10 +2136,10 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2081,19 +2148,19 @@
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -2122,85 +2189,85 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.423</v>
+        <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="O10" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P10" t="n">
         <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T10" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA10" t="n">
         <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,25 +2279,25 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM10" t="n">
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
@@ -2251,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV10" t="n">
         <v>10</v>
@@ -2263,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2272,10 +2339,10 @@
         <v>23</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2421,16 +2488,16 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
         <v>24</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -2501,40 +2568,40 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
       </c>
       <c r="L12" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
         <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.721</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.2</v>
@@ -2543,46 +2610,46 @@
         <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.8</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2597,25 +2664,25 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
         <v>13</v>
       </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,19 +2691,19 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2761,22 +2828,22 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>23</v>
@@ -2806,13 +2873,13 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>18</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>19</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2821,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.696</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
@@ -2877,40 +2944,40 @@
         <v>10.1</v>
       </c>
       <c r="M14" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O14" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P14" t="n">
         <v>25.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R14" t="n">
         <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U14" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="V14" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W14" t="n">
         <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
@@ -2919,25 +2986,25 @@
         <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>107</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2946,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>4</v>
@@ -2964,10 +3031,10 @@
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2982,13 +3049,13 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -2997,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.267</v>
+        <v>0.261</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>85.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R15" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S15" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3095,22 +3162,22 @@
         <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,37 +3189,37 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
         <v>18</v>
       </c>
-      <c r="AI15" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP15" t="n">
         <v>9</v>
       </c>
-      <c r="AP15" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>18</v>
@@ -3164,7 +3231,7 @@
         <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW15" t="n">
         <v>18</v>
@@ -3173,13 +3240,13 @@
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA15" t="n">
         <v>18</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>20</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3328,10 +3395,10 @@
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
         <v>23</v>
@@ -3343,7 +3410,7 @@
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>7</v>
@@ -3358,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3504,10 +3571,10 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>9</v>
@@ -3537,13 +3604,13 @@
         <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -3656,34 +3723,34 @@
         <v>1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
         <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN18" t="n">
         <v>5</v>
@@ -3695,10 +3762,10 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3716,13 +3783,13 @@
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.178</v>
+        <v>0.159</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J19" t="n">
-        <v>84.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>15.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O19" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.748</v>
+        <v>0.744</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S19" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T19" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>8.6</v>
@@ -3826,19 +3893,19 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA19" t="n">
         <v>21.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.4</v>
+        <v>-9.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3871,13 +3938,13 @@
         <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3886,7 +3953,7 @@
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
@@ -3901,16 +3968,16 @@
         <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -3945,28 +4012,28 @@
         <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.511</v>
+        <v>0.533</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
         <v>18.8</v>
@@ -3975,34 +4042,34 @@
         <v>0.343</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4014,13 +4081,13 @@
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4032,16 +4099,16 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,37 +4117,37 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
         <v>17</v>
       </c>
-      <c r="AP20" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.196</v>
+        <v>0.178</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K21" t="n">
         <v>0.439</v>
@@ -4154,7 +4221,7 @@
         <v>20.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
         <v>13.6</v>
@@ -4163,46 +4230,46 @@
         <v>17.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R21" t="n">
         <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
         <v>4</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA21" t="n">
         <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.6</v>
+        <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4214,10 +4281,10 @@
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4253,19 +4320,19 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="n">
         <v>23</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J22" t="n">
         <v>85.2</v>
@@ -4330,34 +4397,34 @@
         <v>0.44</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
         <v>23</v>
       </c>
       <c r="N22" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O22" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P22" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S22" t="n">
         <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
         <v>14.9</v>
@@ -4366,10 +4433,10 @@
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
         <v>22.6</v>
@@ -4378,31 +4445,31 @@
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
         <v>22</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
         <v>12</v>
@@ -4426,7 +4493,7 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4441,19 +4508,19 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -4488,82 +4555,82 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.319</v>
+        <v>0.313</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
         <v>0.364</v>
       </c>
       <c r="O23" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="P23" t="n">
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4578,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
         <v>16</v>
@@ -4587,10 +4654,10 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>23</v>
@@ -4605,7 +4672,7 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
@@ -4620,16 +4687,16 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.196</v>
+        <v>0.178</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="J24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K24" t="n">
-        <v>0.408</v>
+        <v>0.407</v>
       </c>
       <c r="L24" t="n">
         <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.297</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q24" t="n">
         <v>0.681</v>
@@ -4715,40 +4782,40 @@
         <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U24" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V24" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y24" t="n">
         <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB24" t="n">
         <v>89.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.1</v>
+        <v>-12.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>10</v>
@@ -4790,16 +4857,16 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4814,7 +4881,7 @@
         <v>25</v>
       </c>
       <c r="AZ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -4852,19 +4919,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.574</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I25" t="n">
         <v>40.2</v>
@@ -4873,28 +4940,28 @@
         <v>86.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N25" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O25" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P25" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q25" t="n">
         <v>0.789</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S25" t="n">
         <v>31.7</v>
@@ -4912,25 +4979,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
         <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4972,10 +5039,10 @@
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -4990,22 +5057,22 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.696</v>
+        <v>0.711</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J26" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.445</v>
@@ -5061,37 +5128,37 @@
         <v>10.2</v>
       </c>
       <c r="M26" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P26" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
         <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="T26" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V26" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
         <v>5.1</v>
@@ -5103,16 +5170,16 @@
         <v>19.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.8</v>
+        <v>103</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5124,10 +5191,10 @@
         <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
@@ -5157,31 +5224,31 @@
         <v>15</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" t="n">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J27" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.457</v>
       </c>
       <c r="L27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M27" t="n">
         <v>15.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="O27" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="P27" t="n">
         <v>29.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="T27" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="U27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
         <v>16.5</v>
@@ -5282,7 +5349,7 @@
         <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA27" t="n">
         <v>24.8</v>
@@ -5291,7 +5358,7 @@
         <v>101.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="AD27" t="n">
         <v>28</v>
@@ -5300,7 +5367,7 @@
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
         <v>21</v>
@@ -5309,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5333,16 +5400,16 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -5416,67 +5483,67 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
         <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
         <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5494,10 +5561,10 @@
         <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,10 +5576,10 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>11</v>
@@ -5521,19 +5588,19 @@
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5542,7 +5609,7 @@
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
         <v>17</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -5580,112 +5647,112 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.674</v>
+        <v>0.667</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J29" t="n">
         <v>84.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L29" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="O29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P29" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R29" t="n">
         <v>11.4</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
         <v>42</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
         <v>21.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>106</v>
+        <v>105.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
         <v>8</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>6</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
         <v>16</v>
@@ -5697,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR29" t="n">
         <v>10</v>
@@ -5706,19 +5773,19 @@
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5789,37 +5856,37 @@
         <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.34</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P30" t="n">
         <v>22.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
         <v>30.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X30" t="n">
         <v>5.9</v>
@@ -5828,19 +5895,19 @@
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA30" t="n">
         <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC30" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
@@ -5870,10 +5937,10 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5909,13 +5976,13 @@
         <v>5</v>
       </c>
       <c r="BA30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB30" t="n">
         <v>24</v>
       </c>
       <c r="BC30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
@@ -5944,106 +6011,106 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
         <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.66</v>
+        <v>0.674</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.474</v>
+        <v>0.476</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M31" t="n">
         <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O31" t="n">
         <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S31" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U31" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6064,13 +6131,13 @@
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
@@ -6079,25 +6146,25 @@
         <v>21</v>
       </c>
       <c r="AW31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-28-2014-15</t>
+          <t>2015-01-28</t>
         </is>
       </c>
     </row>
